--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75874.02328036596</v>
+        <v>72671.67426161646</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>9674937.613861734</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22317222.39794713</v>
+        <v>23950570.23808745</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4118683.104073489</v>
+        <v>3353272.161017467</v>
       </c>
     </row>
     <row r="11">
@@ -9237,34 +9237,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9337,10 +9337,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>110.5750244233121</v>
@@ -9474,34 +9474,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>94.49434172313325</v>
@@ -9808,7 +9808,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>101.5955875616828</v>
@@ -9878,10 +9878,10 @@
         <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>110.5750244233121</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>92.09541281912071</v>
@@ -10352,13 +10352,13 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>117.8828208804077</v>
@@ -10434,10 +10434,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>57.81213424001893</v>
@@ -10586,22 +10586,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10668,13 +10668,13 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>57.81213424001893</v>
@@ -10823,22 +10823,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>150.3839754851235</v>
@@ -10902,22 +10902,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>94.49434172313325</v>
@@ -11060,25 +11060,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,22 +11142,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11230,10 +11230,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,31 +11370,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,25 +11455,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23829,34 +23829,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23929,10 +23929,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23993,13 +23993,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -24066,34 +24066,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24230,22 +24230,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24306,25 +24306,25 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24400,7 +24400,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -24470,10 +24470,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -24701,28 +24701,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24777,34 +24777,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24865,7 +24865,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -24944,13 +24944,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -25026,10 +25026,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -25178,22 +25178,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25260,13 +25260,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -25415,22 +25415,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25494,22 +25494,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25652,25 +25652,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25734,22 +25734,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25822,10 +25822,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25886,31 +25886,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25962,31 +25962,31 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26047,25 +26047,25 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>126.4887893424616</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349510.8103782588</v>
+        <v>298050.7396187526</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349510.8103782588</v>
+        <v>270408.3261791829</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>349510.8103782588</v>
+        <v>208611.8639195785</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349510.8103782588</v>
+        <v>315512.5064809399</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>349510.8103782588</v>
+        <v>178288.856677875</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349510.8103782588</v>
+        <v>293393.9030354898</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>349510.8103782588</v>
+        <v>234706.4591740938</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>349510.8103782588</v>
+        <v>222435.4654396848</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349510.8103782588</v>
+        <v>192125.0353106196</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349510.8103782588</v>
+        <v>138231.4598481471</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26326,34 @@
         <v>114320.5481498636</v>
       </c>
       <c r="G2" t="n">
-        <v>114320.5481498636</v>
+        <v>99617.67079000475</v>
       </c>
       <c r="H2" t="n">
-        <v>114320.5481498636</v>
+        <v>91719.8383786991</v>
       </c>
       <c r="I2" t="n">
-        <v>114320.5481498636</v>
+        <v>74063.70630452641</v>
       </c>
       <c r="J2" t="n">
-        <v>114320.5481498636</v>
+        <v>104606.747036344</v>
       </c>
       <c r="K2" t="n">
-        <v>114320.5481498636</v>
+        <v>65399.98994975397</v>
       </c>
       <c r="L2" t="n">
-        <v>114320.5481498636</v>
+        <v>98287.14605192967</v>
       </c>
       <c r="M2" t="n">
-        <v>114320.5481498636</v>
+        <v>81519.30494867367</v>
       </c>
       <c r="N2" t="n">
-        <v>114320.5481498636</v>
+        <v>78013.30673884253</v>
       </c>
       <c r="O2" t="n">
-        <v>114320.5481498636</v>
+        <v>69353.18384482387</v>
       </c>
       <c r="P2" t="n">
-        <v>114320.5481498636</v>
+        <v>53955.01942697456</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>49006.56264374091</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>41108.73023243528</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>23452.59815826258</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>53995.63889008012</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>14788.88180349014</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>47676.03790566583</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>30908.19680240984</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>27402.19859257868</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>18742.07569856005</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>3343.911280710747</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33100.25478595364</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="C6" t="n">
-        <v>-33100.25478595364</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>-33100.25478595364</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>-85787.99647975372</v>
+        <v>-86100.50395874445</v>
       </c>
       <c r="F6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.49604125555</v>
       </c>
       <c r="G6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.49604125552</v>
       </c>
       <c r="H6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.4960412555</v>
       </c>
       <c r="I6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.49604125551</v>
       </c>
       <c r="J6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.49604125554</v>
       </c>
       <c r="K6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.49604125551</v>
       </c>
       <c r="L6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.49604125552</v>
       </c>
       <c r="M6" t="n">
-        <v>47312.00352024631</v>
+        <v>46999.49604125551</v>
       </c>
       <c r="N6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.49604125552</v>
       </c>
       <c r="O6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.4960412555</v>
       </c>
       <c r="P6" t="n">
-        <v>47312.00352024633</v>
+        <v>46999.49604125549</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72671.67426161646</v>
+        <v>86398.03239903451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9674937.613861734</v>
+        <v>10437521.13888499</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23950570.23808745</v>
+        <v>24713153.76311073</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3353272.161017467</v>
+        <v>2954479.561640022</v>
       </c>
     </row>
     <row r="11">
@@ -8769,19 +8771,19 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -8927,25 +8929,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,25 +9008,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,13 +9093,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>135.370731907559</v>
@@ -9322,25 +9324,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9404,22 +9406,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9568,13 +9570,13 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9641,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9799,13 +9801,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -9875,22 +9877,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>150.3839754851235</v>
@@ -9954,25 +9956,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10036,13 +10038,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>96.22962838366004</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10276,10 +10278,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>96.22962838366004</v>
@@ -10349,7 +10351,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,16 +10512,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>101.5955875616828</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,13 +10749,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>96.22962838366004</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11221,13 +11223,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11473,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23361,19 +23363,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23519,25 +23521,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>108.0327934026353</v>
@@ -23598,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23683,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23753,7 +23755,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23914,25 +23916,25 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23996,22 +23998,22 @@
         <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24160,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24233,16 +24235,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>135.4597561231036</v>
@@ -24306,7 +24308,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -24391,13 +24393,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
         <v>96.22962838366004</v>
@@ -24467,22 +24469,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24546,25 +24548,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24628,13 +24630,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -24701,13 +24703,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>113.4004983079896</v>
@@ -24719,10 +24721,10 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24804,7 +24806,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24868,10 +24870,10 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -24941,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
         <v>130.6648563030561</v>
@@ -24953,10 +24955,10 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25017,13 +25019,13 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
         <v>51.84373129681028</v>
@@ -25032,13 +25034,13 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25102,16 +25104,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -25269,13 +25271,13 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25339,13 +25341,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25412,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25433,10 +25435,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25488,10 +25490,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25503,7 +25505,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
         <v>57.81213424001893</v>
@@ -25512,10 +25514,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25573,22 +25575,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>61.14583096471014</v>
@@ -25728,10 +25730,10 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
         <v>61.18167021676314</v>
@@ -25740,7 +25742,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
         <v>57.81213424001893</v>
@@ -25813,13 +25815,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
         <v>96.22962838366004</v>
@@ -25910,7 +25912,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25962,10 +25964,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -26044,7 +26046,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K46" t="n">
         <v>94.30397654773019</v>
@@ -26065,7 +26067,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349510.8103782588</v>
+        <v>330876.4683437687</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349510.8103782588</v>
+        <v>199100.2489893418</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>298050.7396187526</v>
+        <v>268136.5378805031</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270408.3261791829</v>
+        <v>172854.8021693137</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>208611.8639195785</v>
+        <v>274105.2326059685</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>315512.5064809399</v>
+        <v>223514.5295771146</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>178288.856677875</v>
+        <v>211981.9323533533</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>293393.9030354898</v>
+        <v>190490.0039166489</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>234706.4591740938</v>
+        <v>207403.1046372692</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>222435.4654396848</v>
+        <v>130684.8967530795</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>192125.0353106196</v>
+        <v>165274.5014539806</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138231.4598481471</v>
+        <v>142555.5102442565</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>107507.4055314464</v>
       </c>
       <c r="E2" t="n">
-        <v>114320.5481498636</v>
+        <v>108996.4504257236</v>
       </c>
       <c r="F2" t="n">
-        <v>114320.5481498636</v>
+        <v>71346.10203874449</v>
       </c>
       <c r="G2" t="n">
-        <v>99617.67079000475</v>
+        <v>91070.75600764775</v>
       </c>
       <c r="H2" t="n">
-        <v>91719.8383786991</v>
+        <v>63847.40294730788</v>
       </c>
       <c r="I2" t="n">
-        <v>74063.70630452641</v>
+        <v>92776.09735778073</v>
       </c>
       <c r="J2" t="n">
-        <v>104606.747036344</v>
+        <v>78321.61077810818</v>
       </c>
       <c r="K2" t="n">
-        <v>65399.98994975397</v>
+        <v>75026.58299989067</v>
       </c>
       <c r="L2" t="n">
-        <v>98287.14605192967</v>
+        <v>68886.03201797511</v>
       </c>
       <c r="M2" t="n">
-        <v>81519.30494867367</v>
+        <v>73718.34650958092</v>
       </c>
       <c r="N2" t="n">
-        <v>78013.30673884253</v>
+        <v>51798.85854266952</v>
       </c>
       <c r="O2" t="n">
-        <v>69353.18384482387</v>
+        <v>61681.60274292699</v>
       </c>
       <c r="P2" t="n">
-        <v>53955.01942697456</v>
+        <v>55190.46239729154</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>107507.4055314464</v>
       </c>
       <c r="E4" t="n">
-        <v>63709.44000359975</v>
+        <v>58385.34227945977</v>
       </c>
       <c r="F4" t="n">
-        <v>63709.44000359975</v>
+        <v>20734.99389248067</v>
       </c>
       <c r="G4" t="n">
-        <v>49006.56264374091</v>
+        <v>40459.64786138389</v>
       </c>
       <c r="H4" t="n">
-        <v>41108.73023243528</v>
+        <v>13236.29480104406</v>
       </c>
       <c r="I4" t="n">
-        <v>23452.59815826258</v>
+        <v>42164.98921151689</v>
       </c>
       <c r="J4" t="n">
-        <v>53995.63889008012</v>
+        <v>27710.50263184435</v>
       </c>
       <c r="K4" t="n">
-        <v>14788.88180349014</v>
+        <v>24415.47485362683</v>
       </c>
       <c r="L4" t="n">
-        <v>47676.03790566583</v>
+        <v>18274.92387171127</v>
       </c>
       <c r="M4" t="n">
-        <v>30908.19680240984</v>
+        <v>23107.23836331709</v>
       </c>
       <c r="N4" t="n">
-        <v>27402.19859257868</v>
+        <v>1187.750396405697</v>
       </c>
       <c r="O4" t="n">
-        <v>18742.07569856005</v>
+        <v>11070.49459666317</v>
       </c>
       <c r="P4" t="n">
-        <v>3343.911280710747</v>
+        <v>4579.354251027721</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-33627.6</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.59999999998</v>
@@ -26528,40 +26530,40 @@
         <v>-33627.59999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>-86100.50395874445</v>
+        <v>-86100.50395874452</v>
       </c>
       <c r="F6" t="n">
-        <v>46999.49604125555</v>
+        <v>46999.49604125549</v>
       </c>
       <c r="G6" t="n">
-        <v>46999.49604125552</v>
+        <v>46999.49604125554</v>
       </c>
       <c r="H6" t="n">
         <v>46999.4960412555</v>
       </c>
       <c r="I6" t="n">
+        <v>46999.49604125552</v>
+      </c>
+      <c r="J6" t="n">
         <v>46999.49604125551</v>
       </c>
-      <c r="J6" t="n">
-        <v>46999.49604125554</v>
-      </c>
       <c r="K6" t="n">
-        <v>46999.49604125551</v>
+        <v>46999.49604125552</v>
       </c>
       <c r="L6" t="n">
         <v>46999.49604125552</v>
       </c>
       <c r="M6" t="n">
-        <v>46999.49604125551</v>
+        <v>46999.4960412555</v>
       </c>
       <c r="N6" t="n">
-        <v>46999.49604125552</v>
+        <v>46999.4960412555</v>
       </c>
       <c r="O6" t="n">
         <v>46999.4960412555</v>
       </c>
       <c r="P6" t="n">
-        <v>46999.49604125549</v>
+        <v>46999.4960412555</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86398.03239903451</v>
+        <v>-38711.86639844201</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10437521.13888499</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24713153.76311073</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2954479.561640022</v>
+        <v>4118683.104073489</v>
       </c>
     </row>
     <row r="11">
@@ -8771,19 +8771,19 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -8929,25 +8929,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,25 +9008,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9093,13 +9093,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
         <v>135.370731907559</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
         <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9403,25 +9403,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9570,13 +9570,13 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9640,7 +9640,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
         <v>130.6648563030561</v>
@@ -9655,7 +9655,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
@@ -9719,22 +9719,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
         <v>94.49434172313325</v>
@@ -9801,16 +9801,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
         <v>101.5955875616828</v>
@@ -9877,22 +9877,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
         <v>150.3839754851235</v>
@@ -9956,25 +9956,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10038,13 +10038,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
         <v>96.22962838366004</v>
@@ -10114,22 +10114,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,13 +10275,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
         <v>96.22962838366004</v>
@@ -10351,22 +10351,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10512,16 +10512,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
         <v>101.5955875616828</v>
@@ -10588,22 +10588,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10670,22 +10670,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10749,13 +10749,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
         <v>96.22962838366004</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11062,25 +11062,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11223,19 +11223,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23363,19 +23363,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -23521,25 +23521,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>108.0327934026353</v>
@@ -23600,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23685,13 +23685,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23755,7 +23755,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23831,34 +23831,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23916,22 +23916,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>61.14583096471014</v>
@@ -23995,25 +23995,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24068,34 +24068,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24232,7 +24232,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24247,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24311,22 +24311,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24393,16 +24393,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -24469,22 +24469,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24548,25 +24548,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24630,13 +24630,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -24706,22 +24706,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24779,31 +24779,31 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>78.03303713061706</v>
@@ -24867,13 +24867,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -24943,22 +24943,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25019,28 +25019,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25104,16 +25104,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -25180,22 +25180,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25262,22 +25262,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25341,13 +25341,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25414,31 +25414,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25490,34 +25490,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25575,22 +25575,22 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>61.14583096471014</v>
@@ -25654,25 +25654,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25730,28 +25730,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25815,19 +25815,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25888,28 +25888,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25967,28 +25967,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26046,25 +26046,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>330876.4683437687</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>199100.2489893418</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>268136.5378805031</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>172854.8021693137</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>274105.2326059685</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>223514.5295771146</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>211981.9323533533</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>190490.0039166489</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>207403.1046372692</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130684.8967530795</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>165274.5014539806</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>142555.5102442565</v>
+        <v>349510.8103782588</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>107507.4055314464</v>
       </c>
       <c r="E2" t="n">
-        <v>108996.4504257236</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="F2" t="n">
-        <v>71346.10203874449</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="G2" t="n">
-        <v>91070.75600764775</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="H2" t="n">
-        <v>63847.40294730788</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="I2" t="n">
-        <v>92776.09735778073</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="J2" t="n">
-        <v>78321.61077810818</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="K2" t="n">
-        <v>75026.58299989067</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="L2" t="n">
-        <v>68886.03201797511</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="M2" t="n">
-        <v>73718.34650958092</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="N2" t="n">
-        <v>51798.85854266952</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="O2" t="n">
-        <v>61681.60274292699</v>
+        <v>114320.5481498636</v>
       </c>
       <c r="P2" t="n">
-        <v>55190.46239729154</v>
+        <v>114320.5481498636</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>107507.4055314464</v>
       </c>
       <c r="E4" t="n">
-        <v>58385.34227945977</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>20734.99389248067</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>40459.64786138389</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>13236.29480104406</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>42164.98921151689</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>27710.50263184435</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>24415.47485362683</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>18274.92387171127</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>23107.23836331709</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>1187.750396405697</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>11070.49459666317</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>4579.354251027721</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-48778.27397003474</v>
       </c>
       <c r="E6" t="n">
-        <v>-86100.50395874452</v>
+        <v>-100910.5207978584</v>
       </c>
       <c r="F6" t="n">
-        <v>46999.49604125549</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="G6" t="n">
-        <v>46999.49604125554</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="H6" t="n">
-        <v>46999.4960412555</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="I6" t="n">
-        <v>46999.49604125552</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="J6" t="n">
-        <v>46999.49604125551</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="K6" t="n">
-        <v>46999.49604125552</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="L6" t="n">
-        <v>46999.49604125552</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="M6" t="n">
-        <v>46999.4960412555</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="N6" t="n">
-        <v>46999.4960412555</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="O6" t="n">
-        <v>46999.4960412555</v>
+        <v>32189.47920214164</v>
       </c>
       <c r="P6" t="n">
-        <v>46999.4960412555</v>
+        <v>32189.47920214164</v>
       </c>
     </row>
   </sheetData>
